--- a/CASUAL/LA ONT/MONTEZA, ENGRACIA.xlsx
+++ b/CASUAL/LA ONT/MONTEZA, ENGRACIA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>UT(1-7-25)</t>
+  </si>
+  <si>
+    <t>UT(1-4-38)</t>
   </si>
 </sst>
 </file>
@@ -619,6 +622,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -631,20 +643,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,7 +1344,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1387,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1451,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1511,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1577,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1640,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1738,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1797,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1862,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1905,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1980,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2166,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2232,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2290,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2356,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2412,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2487,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2530,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2596,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2652,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2750,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2813,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,7 +3292,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4230" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,14 +3322,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3337,14 +3340,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3357,14 +3360,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3390,18 +3393,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3448,7 +3451,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.448</v>
+        <v>56.869</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4649,11 +4652,15 @@
       <c r="A68" s="40">
         <v>44682</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>1.579</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -5833,17 +5840,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5912,14 +5919,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5933,17 +5940,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5957,17 +5964,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5993,18 +6000,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8168,14 +8175,14 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.927</v>
+        <v>1.579</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/MONTEZA, ENGRACIA.xlsx
+++ b/CASUAL/LA ONT/MONTEZA, ENGRACIA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>UT(1-4-38)</t>
+  </si>
+  <si>
+    <t>UT(0-0-59)</t>
+  </si>
+  <si>
+    <t>UT(1-5-0)</t>
   </si>
 </sst>
 </file>
@@ -622,15 +628,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -643,11 +640,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1344,7 +1350,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1393,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1457,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1517,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1583,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1646,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1744,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1803,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1868,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1911,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1986,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2172,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2238,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2296,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2362,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2418,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2493,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2536,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2602,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2658,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2756,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2819,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2885,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3287,12 +3293,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4230" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,14 +3328,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3340,14 +3346,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3360,14 +3366,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3393,18 +3399,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3451,7 +3457,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.869</v>
+        <v>54.245999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4744,11 +4750,15 @@
       <c r="A72" s="40">
         <v>44805</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>1.625</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4784,11 +4794,15 @@
       <c r="A74" s="40">
         <v>44866</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4825,12 +4839,14 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="20"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>0.875</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -4843,19 +4859,17 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44957</v>
+      <c r="A77" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4864,7 +4878,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4884,7 +4898,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4904,7 +4918,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4924,7 +4938,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4944,7 +4958,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4964,7 +4978,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4984,7 +4998,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5004,7 +5018,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5024,16 +5038,18 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5042,7 +5058,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5060,7 +5076,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5078,7 +5094,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5096,7 +5112,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5114,7 +5130,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5132,7 +5148,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5150,7 +5166,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5167,7 +5183,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45443</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5823,34 +5841,50 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5919,14 +5953,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5940,17 +5974,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5964,17 +5998,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6000,18 +6034,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8175,14 +8209,12 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>38</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.579</v>
+        <v>1.625</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
